--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="GammaFiber2F-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="GammaFiber2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +961,7 @@
         <v>0.9901570821353924</v>
       </c>
       <c r="G13">
-        <v>0.9892955437337662</v>
+        <v>0.9892955437337658</v>
       </c>
       <c r="H13">
         <v>0.9918207994291744</v>
@@ -1046,7 +1046,7 @@
         <v>1.048629242307487</v>
       </c>
       <c r="H15">
-        <v>0.9126454864446566</v>
+        <v>0.9126454864446567</v>
       </c>
       <c r="I15">
         <v>0.9636460807380202</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9922984207834106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.091128325504751</v>
+      </c>
+      <c r="D16">
+        <v>0.7578295544841002</v>
+      </c>
+      <c r="E16">
+        <v>1.037371740661115</v>
+      </c>
+      <c r="F16">
+        <v>1.091128325504751</v>
+      </c>
+      <c r="G16">
+        <v>0.8635845995175551</v>
+      </c>
+      <c r="H16">
+        <v>1.096566683461554</v>
+      </c>
+      <c r="I16">
+        <v>1.048011660263252</v>
+      </c>
+      <c r="J16">
+        <v>0.7578295544841002</v>
+      </c>
+      <c r="K16">
+        <v>0.8976006475726077</v>
+      </c>
+      <c r="L16">
+        <v>0.9943644865386794</v>
+      </c>
+      <c r="M16">
+        <v>0.982415427315388</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.091128325504751</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
@@ -964,7 +964,7 @@
         <v>0.9901570821353924</v>
       </c>
       <c r="G13">
-        <v>0.9892955437337658</v>
+        <v>0.9892955437337662</v>
       </c>
       <c r="H13">
         <v>0.9918207994291744</v>
@@ -1049,7 +1049,7 @@
         <v>1.048629242307487</v>
       </c>
       <c r="H15">
-        <v>0.9126454864446567</v>
+        <v>0.9126454864446566</v>
       </c>
       <c r="I15">
         <v>0.9636460807380202</v>

--- a/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/GammaFiber2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9968119999999988</v>
+        <v>1.091128325504751</v>
       </c>
       <c r="D10">
-        <v>0.5832879999999998</v>
+        <v>0.7578295544841002</v>
       </c>
       <c r="E10">
-        <v>1.169859999999997</v>
+        <v>1.037371740661115</v>
       </c>
       <c r="F10">
-        <v>0.9968119999999988</v>
+        <v>1.091128325504751</v>
       </c>
       <c r="G10">
-        <v>0.6832479999999989</v>
+        <v>0.8635845995175551</v>
       </c>
       <c r="H10">
-        <v>1.510004000000001</v>
+        <v>1.096566683461554</v>
       </c>
       <c r="I10">
-        <v>1.127331999999998</v>
+        <v>1.048011660263252</v>
       </c>
       <c r="J10">
-        <v>0.5832879999999998</v>
+        <v>0.7578295544841002</v>
       </c>
       <c r="K10">
-        <v>0.8765739999999984</v>
+        <v>0.8976006475726077</v>
       </c>
       <c r="L10">
-        <v>0.9366929999999986</v>
+        <v>0.9943644865386794</v>
       </c>
       <c r="M10">
-        <v>1.011757333333332</v>
+        <v>0.982415427315388</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9981431672313066</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>0.9071933431831555</v>
       </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>1.019910377445589</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9981431672313066</v>
       </c>
       <c r="G11">
-        <v>0.46</v>
+        <v>0.9375087112474915</v>
       </c>
       <c r="H11">
-        <v>1.89</v>
+        <v>1.069745777265037</v>
       </c>
       <c r="I11">
-        <v>1.23</v>
+        <v>1.013354578534767</v>
       </c>
       <c r="J11">
-        <v>0.3</v>
+        <v>0.9071933431831555</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.9635518603143722</v>
       </c>
       <c r="L11">
-        <v>0.9</v>
+        <v>0.9808475137728394</v>
       </c>
       <c r="M11">
-        <v>1.03</v>
+        <v>0.9909759924845578</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9968750080000064</v>
+        <v>0.9976992366860186</v>
       </c>
       <c r="D12">
-        <v>0.5833326080000026</v>
+        <v>0.9077478953436877</v>
       </c>
       <c r="E12">
-        <v>1.169791999999996</v>
+        <v>1.019823097386691</v>
       </c>
       <c r="F12">
-        <v>0.9968750080000064</v>
+        <v>0.9976992366860186</v>
       </c>
       <c r="G12">
-        <v>0.6833327616000017</v>
+        <v>0.9379094513139449</v>
       </c>
       <c r="H12">
-        <v>1.509792639999996</v>
+        <v>1.069596896195627</v>
       </c>
       <c r="I12">
-        <v>1.127291929599996</v>
+        <v>1.013135871388911</v>
       </c>
       <c r="J12">
-        <v>0.5833326080000026</v>
+        <v>0.9077478953436877</v>
       </c>
       <c r="K12">
-        <v>0.8765623039999995</v>
+        <v>0.9637854963651893</v>
       </c>
       <c r="L12">
-        <v>0.9367186560000029</v>
+        <v>0.980742366525604</v>
       </c>
       <c r="M12">
-        <v>1.011736157866667</v>
+        <v>0.9909854080524799</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9901570821353924</v>
+        <v>0.9980924709445184</v>
       </c>
       <c r="D13">
-        <v>0.99184329638778</v>
+        <v>0.9070546359573582</v>
       </c>
       <c r="E13">
-        <v>0.9930677450039215</v>
+        <v>1.019884161823519</v>
       </c>
       <c r="F13">
-        <v>0.9901570821353924</v>
+        <v>0.9980924709445184</v>
       </c>
       <c r="G13">
-        <v>0.9892955437337662</v>
+        <v>0.9375787731877179</v>
       </c>
       <c r="H13">
-        <v>0.9918207994291744</v>
+        <v>1.069718323598835</v>
       </c>
       <c r="I13">
-        <v>0.9922537915243335</v>
+        <v>1.013267224825383</v>
       </c>
       <c r="J13">
-        <v>0.99184329638778</v>
+        <v>0.9070546359573582</v>
       </c>
       <c r="K13">
-        <v>0.9924555206958507</v>
+        <v>0.9634693988904388</v>
       </c>
       <c r="L13">
-        <v>0.9913063014156216</v>
+        <v>0.9807809349174786</v>
       </c>
       <c r="M13">
-        <v>0.9914063763690614</v>
+        <v>0.9909325983895553</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9763736305265047</v>
+        <v>0.9968119999999988</v>
       </c>
       <c r="D14">
-        <v>1.028395677837255</v>
+        <v>0.5832879999999998</v>
       </c>
       <c r="E14">
-        <v>0.9873849543814356</v>
+        <v>1.169859999999997</v>
       </c>
       <c r="F14">
-        <v>0.9763736305265047</v>
+        <v>0.9968119999999988</v>
       </c>
       <c r="G14">
-        <v>1.004974923678093</v>
+        <v>0.6832479999999989</v>
       </c>
       <c r="H14">
-        <v>0.9758584490992511</v>
+        <v>1.510004000000001</v>
       </c>
       <c r="I14">
-        <v>0.9835817119686248</v>
+        <v>1.127331999999998</v>
       </c>
       <c r="J14">
-        <v>1.028395677837255</v>
+        <v>0.5832879999999998</v>
       </c>
       <c r="K14">
-        <v>1.007890316109345</v>
+        <v>0.8765739999999984</v>
       </c>
       <c r="L14">
-        <v>0.992131973317925</v>
+        <v>0.9366929999999986</v>
       </c>
       <c r="M14">
-        <v>0.9927615579151942</v>
+        <v>1.011757333333332</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.972859288977856</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.09129273348806</v>
+        <v>0.3</v>
       </c>
       <c r="E15">
-        <v>0.964717692744382</v>
+        <v>1.3</v>
       </c>
       <c r="F15">
-        <v>0.972859288977856</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.048629242307487</v>
+        <v>0.46</v>
       </c>
       <c r="H15">
-        <v>0.9126454864446566</v>
+        <v>1.89</v>
       </c>
       <c r="I15">
-        <v>0.9636460807380202</v>
+        <v>1.23</v>
       </c>
       <c r="J15">
-        <v>1.09129273348806</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>1.028005213116221</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>1.000432251047039</v>
+        <v>0.9</v>
       </c>
       <c r="M15">
-        <v>0.9922984207834106</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.091128325504751</v>
+        <v>0.9968750080000064</v>
       </c>
       <c r="D16">
-        <v>0.7578295544841002</v>
+        <v>0.5833326080000026</v>
       </c>
       <c r="E16">
-        <v>1.037371740661115</v>
+        <v>1.169791999999996</v>
       </c>
       <c r="F16">
-        <v>1.091128325504751</v>
+        <v>0.9968750080000064</v>
       </c>
       <c r="G16">
-        <v>0.8635845995175551</v>
+        <v>0.6833327616000017</v>
       </c>
       <c r="H16">
-        <v>1.096566683461554</v>
+        <v>1.509792639999996</v>
       </c>
       <c r="I16">
-        <v>1.048011660263252</v>
+        <v>1.127291929599996</v>
       </c>
       <c r="J16">
-        <v>0.7578295544841002</v>
+        <v>0.5833326080000026</v>
       </c>
       <c r="K16">
-        <v>0.8976006475726077</v>
+        <v>0.8765623039999995</v>
       </c>
       <c r="L16">
-        <v>0.9943644865386794</v>
+        <v>0.9367186560000029</v>
       </c>
       <c r="M16">
-        <v>0.982415427315388</v>
+        <v>1.011736157866667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9901570821353924</v>
+      </c>
+      <c r="D17">
+        <v>0.99184329638778</v>
+      </c>
+      <c r="E17">
+        <v>0.9930677450039215</v>
+      </c>
+      <c r="F17">
+        <v>0.9901570821353924</v>
+      </c>
+      <c r="G17">
+        <v>0.9892955437337658</v>
+      </c>
+      <c r="H17">
+        <v>0.9918207994291744</v>
+      </c>
+      <c r="I17">
+        <v>0.9922537915243335</v>
+      </c>
+      <c r="J17">
+        <v>0.99184329638778</v>
+      </c>
+      <c r="K17">
+        <v>0.9924555206958507</v>
+      </c>
+      <c r="L17">
+        <v>0.9913063014156216</v>
+      </c>
+      <c r="M17">
+        <v>0.9914063763690614</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9763736305265047</v>
+      </c>
+      <c r="D18">
+        <v>1.028395677837255</v>
+      </c>
+      <c r="E18">
+        <v>0.9873849543814356</v>
+      </c>
+      <c r="F18">
+        <v>0.9763736305265047</v>
+      </c>
+      <c r="G18">
+        <v>1.004974923678093</v>
+      </c>
+      <c r="H18">
+        <v>0.9758584490992511</v>
+      </c>
+      <c r="I18">
+        <v>0.9835817119686248</v>
+      </c>
+      <c r="J18">
+        <v>1.028395677837255</v>
+      </c>
+      <c r="K18">
+        <v>1.007890316109345</v>
+      </c>
+      <c r="L18">
+        <v>0.992131973317925</v>
+      </c>
+      <c r="M18">
+        <v>0.9927615579151942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.972859288977856</v>
+      </c>
+      <c r="D19">
+        <v>1.09129273348806</v>
+      </c>
+      <c r="E19">
+        <v>0.964717692744382</v>
+      </c>
+      <c r="F19">
+        <v>0.972859288977856</v>
+      </c>
+      <c r="G19">
+        <v>1.048629242307487</v>
+      </c>
+      <c r="H19">
+        <v>0.9126454864446567</v>
+      </c>
+      <c r="I19">
+        <v>0.9636460807380202</v>
+      </c>
+      <c r="J19">
+        <v>1.09129273348806</v>
+      </c>
+      <c r="K19">
+        <v>1.028005213116221</v>
+      </c>
+      <c r="L19">
+        <v>1.000432251047039</v>
+      </c>
+      <c r="M19">
+        <v>0.9922984207834106</v>
       </c>
     </row>
   </sheetData>
